--- a/data/trans_orig/P15E_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P15E_2023-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>2872</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>713</v>
+        <v>728</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4985</v>
+        <v>4360</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5005447561345188</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.124203769332429</v>
+        <v>0.1268439253440865</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8687563777024496</v>
+        <v>0.7598601756892378</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -762,19 +762,19 @@
         <v>3416</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1490</v>
+        <v>1461</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6272</v>
+        <v>6397</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.245947960087443</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1072824551118205</v>
+        <v>0.105172107043356</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4516126561172485</v>
+        <v>0.4605947045889452</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -783,19 +783,19 @@
         <v>6288</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3499</v>
+        <v>3257</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9792</v>
+        <v>9377</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3203781824180905</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1782599174307073</v>
+        <v>0.1659199181596269</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4989156925730523</v>
+        <v>0.4777582838375627</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3291</v>
+        <v>3515</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1198897172517283</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5735132309523924</v>
+        <v>0.612644046446352</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>2514</v>
+        <v>2687</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03629593308256153</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1810171664370753</v>
+        <v>0.1934443508050852</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -857,16 +857,16 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>4210</v>
+        <v>3752</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.06073419796952731</v>
+        <v>0.06073419796952732</v>
       </c>
       <c r="V5" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2144765537368415</v>
+        <v>0.1911610067244675</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>2178</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4329</v>
+        <v>4337</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3795655266137529</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1244692668755561</v>
+        <v>0.124920035033149</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7544290845786356</v>
+        <v>0.7557914971018642</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>20</v>
@@ -904,19 +904,19 @@
         <v>9969</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7070</v>
+        <v>7363</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>11939</v>
+        <v>12001</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.7177561068299955</v>
+        <v>0.7177561068299954</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5090715114398355</v>
+        <v>0.5301087960027884</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8595826097480795</v>
+        <v>0.8640922893597238</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>23</v>
@@ -925,19 +925,19 @@
         <v>12147</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>8588</v>
+        <v>9155</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>15122</v>
+        <v>15083</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6188876196123823</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4375483835578766</v>
+        <v>0.4664600410263516</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7704538714312611</v>
+        <v>0.7685012791012332</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>2770</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4747</v>
+        <v>4745</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.486675067416438</v>
+        <v>0.4866750674164378</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.156552725876442</v>
+        <v>0.1560548935115614</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8339054173119161</v>
+        <v>0.8336111842112488</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -1050,19 +1050,19 @@
         <v>1769</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>4147</v>
+        <v>4401</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.127460793737527</v>
+        <v>0.1274607937375269</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03775385681472414</v>
+        <v>0.03845491583862579</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.298774586290082</v>
+        <v>0.3170698625306236</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>6</v>
@@ -1071,19 +1071,19 @@
         <v>4539</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1710</v>
+        <v>1771</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>8281</v>
+        <v>8375</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.231919815256111</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08737227809402925</v>
+        <v>0.09045687906292628</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4231033770152244</v>
+        <v>0.427871420038897</v>
       </c>
     </row>
     <row r="9">
@@ -1113,19 +1113,19 @@
         <v>3232</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1205</v>
+        <v>1167</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>6521</v>
+        <v>6224</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.2328716976054845</v>
+        <v>0.2328716976054844</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.08678887303605994</v>
+        <v>0.08408021667328396</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.46976876547244</v>
+        <v>0.448396900451896</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>5</v>
@@ -1134,19 +1134,19 @@
         <v>3233</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1071</v>
+        <v>1167</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>6580</v>
+        <v>6632</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1651529251243434</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05471154543242418</v>
+        <v>0.05960267472568562</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3361776279671366</v>
+        <v>0.3388464865491653</v>
       </c>
     </row>
     <row r="10">
@@ -1163,19 +1163,19 @@
         <v>2922</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4801</v>
+        <v>4802</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.5133249325835619</v>
+        <v>0.513324932583562</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1660869879606271</v>
+        <v>0.1663835801725359</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8433927537776407</v>
+        <v>0.8435832973355474</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -1184,19 +1184,19 @@
         <v>8879</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5612</v>
+        <v>6189</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11527</v>
+        <v>11631</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.6396675086569887</v>
+        <v>0.6396675086569886</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4042642753735651</v>
+        <v>0.4458313726987468</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8304460178233989</v>
+        <v>0.8379080838334485</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -1205,19 +1205,19 @@
         <v>11801</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8142</v>
+        <v>7899</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>15203</v>
+        <v>15124</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.6029272596195454</v>
+        <v>0.6029272596195456</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.415978347179818</v>
+        <v>0.4035879241759974</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7767080677865507</v>
+        <v>0.7727102764152517</v>
       </c>
     </row>
     <row r="11">
@@ -1309,19 +1309,19 @@
         <v>2772</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1080</v>
+        <v>1062</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5148</v>
+        <v>5105</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3485539981260891</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1358579007329588</v>
+        <v>0.1335471998704378</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6473504939624598</v>
+        <v>0.6419357047380437</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>12</v>
@@ -1330,19 +1330,19 @@
         <v>6270</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3854</v>
+        <v>3802</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8476</v>
+        <v>8425</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.5655396180161285</v>
+        <v>0.5655396180161283</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.347618472598342</v>
+        <v>0.3429284934503192</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7644935952561089</v>
+        <v>0.7598545384401649</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>17</v>
@@ -1351,19 +1351,19 @@
         <v>9043</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5962</v>
+        <v>6162</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>11947</v>
+        <v>12484</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.4749051389096288</v>
+        <v>0.4749051389096286</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3131041773548002</v>
+        <v>0.3236027755678142</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.627424700655081</v>
+        <v>0.6556484090347385</v>
       </c>
     </row>
     <row r="13">
@@ -1383,16 +1383,16 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2569</v>
+        <v>3069</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.08177426103230181</v>
+        <v>0.0817742610323018</v>
       </c>
       <c r="H13" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3230121352464561</v>
+        <v>0.3858907375156081</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -1404,16 +1404,16 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>2338</v>
+        <v>2121</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.03591401037072442</v>
+        <v>0.03591401037072441</v>
       </c>
       <c r="O13" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.210914130866272</v>
+        <v>0.1913386545511519</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2</v>
@@ -1425,16 +1425,16 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>3698</v>
+        <v>3250</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.05506974950455255</v>
+        <v>0.05506974950455254</v>
       </c>
       <c r="V13" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1941866868140021</v>
+        <v>0.1706708915815414</v>
       </c>
     </row>
     <row r="14">
@@ -1451,19 +1451,19 @@
         <v>4531</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2262</v>
+        <v>2229</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6362</v>
+        <v>6293</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5696717408416092</v>
+        <v>0.569671740841609</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2844016627871547</v>
+        <v>0.2802942970543282</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7999380597359613</v>
+        <v>0.7912765602536518</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>9</v>
@@ -1472,19 +1472,19 @@
         <v>4419</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2234</v>
+        <v>2395</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6857</v>
+        <v>6878</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.3985463716131472</v>
+        <v>0.398546371613147</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2015278253819338</v>
+        <v>0.2160181779249768</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6184338405852938</v>
+        <v>0.6204053284543789</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>17</v>
@@ -1493,19 +1493,19 @@
         <v>8950</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6097</v>
+        <v>5464</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>12083</v>
+        <v>12082</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4700251115858188</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3202133894020087</v>
+        <v>0.2869532929522373</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6345894082800494</v>
+        <v>0.6345247956151474</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>1329</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2750</v>
+        <v>3075</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2739286394553316</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0858517981744447</v>
+        <v>0.08457165625500736</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5666812007377107</v>
+        <v>0.6337075600441134</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -1631,19 +1631,19 @@
         <v>1329</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3113</v>
+        <v>2973</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1712603581527489</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04901857405956817</v>
+        <v>0.04740221901836656</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4009574692179424</v>
+        <v>0.3829805485098161</v>
       </c>
     </row>
     <row r="17">
@@ -1676,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2161</v>
+        <v>2565</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1693299415357392</v>
@@ -1685,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.445213371443369</v>
+        <v>0.5286164374668471</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2</v>
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2695</v>
+        <v>2420</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1058651862436003</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.347140794122101</v>
+        <v>0.3117151202264838</v>
       </c>
     </row>
     <row r="18">
@@ -1736,19 +1736,19 @@
         <v>2702</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1325</v>
+        <v>1342</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>4019</v>
+        <v>4292</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.556741419008929</v>
+        <v>0.5567414190089292</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2729263866116302</v>
+        <v>0.2764936022570846</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8281435772115883</v>
+        <v>0.8843054604816186</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>10</v>
@@ -1757,19 +1757,19 @@
         <v>5612</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>3627</v>
+        <v>3750</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>7005</v>
+        <v>6984</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.7228744556036506</v>
+        <v>0.7228744556036507</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4671905746522432</v>
+        <v>0.4830098828141394</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.902343103905661</v>
+        <v>0.8996054461983343</v>
       </c>
     </row>
     <row r="19">
@@ -2077,19 +2077,19 @@
         <v>1203</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2655</v>
+        <v>2884</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1793731479925991</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0</v>
+        <v>0.05147070354619369</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3958388936370921</v>
+        <v>0.429962443998807</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>12</v>
@@ -2098,19 +2098,19 @@
         <v>4207</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2485</v>
+        <v>2373</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>6632</v>
+        <v>6367</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2650342890243002</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1565412044154467</v>
+        <v>0.1494977464425809</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4177613905172263</v>
+        <v>0.4011116742508493</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>15</v>
@@ -2119,19 +2119,19 @@
         <v>5410</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3166</v>
+        <v>3221</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>8148</v>
+        <v>8294</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.2395908116240628</v>
+        <v>0.2395908116240627</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1401931905512253</v>
+        <v>0.1426272555812971</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3608353015850725</v>
+        <v>0.3672817074369568</v>
       </c>
     </row>
     <row r="25">
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2380</v>
+        <v>2490</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1150531767077674</v>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3549066773819807</v>
+        <v>0.3712952535585076</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>6</v>
@@ -2169,19 +2169,19 @@
         <v>2007</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>870</v>
+        <v>719</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>4092</v>
+        <v>3740</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1264253058935315</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05478171853230441</v>
+        <v>0.04531442705973868</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2577578887464076</v>
+        <v>0.2356269571504585</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>8</v>
@@ -2190,19 +2190,19 @@
         <v>2779</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1318</v>
+        <v>1385</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>5052</v>
+        <v>5140</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1230475022774964</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05836050415879866</v>
+        <v>0.06134861766447987</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2237445612310534</v>
+        <v>0.2276045805364279</v>
       </c>
     </row>
     <row r="26">
@@ -2219,19 +2219,19 @@
         <v>4732</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3134</v>
+        <v>3032</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>5995</v>
+        <v>5972</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7055736752996336</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4672756823297823</v>
+        <v>0.4520000550348434</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8937878148169348</v>
+        <v>0.8903996322064889</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>26</v>
@@ -2240,19 +2240,19 @@
         <v>9660</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>7096</v>
+        <v>7381</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>11697</v>
+        <v>11925</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.6085404050821684</v>
+        <v>0.6085404050821683</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4470479986704753</v>
+        <v>0.4650049048518314</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7368945212831598</v>
+        <v>0.7512404512098287</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>37</v>
@@ -2261,19 +2261,19 @@
         <v>14392</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>11683</v>
+        <v>11418</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>16916</v>
+        <v>16935</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.6373616860984409</v>
+        <v>0.6373616860984408</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5173760339694961</v>
+        <v>0.5056243756031283</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.749109748058701</v>
+        <v>0.7499590049984995</v>
       </c>
     </row>
     <row r="27">
@@ -2365,19 +2365,19 @@
         <v>3435</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>817</v>
+        <v>791</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>5419</v>
+        <v>5404</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5504322518166462</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1309539051765571</v>
+        <v>0.1267224949908945</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8684080328818111</v>
+        <v>0.8659651337229589</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>7</v>
@@ -2386,19 +2386,19 @@
         <v>4666</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2012</v>
+        <v>1988</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>8255</v>
+        <v>8316</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.2193797578898868</v>
+        <v>0.2193797578898869</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.09459725237958024</v>
+        <v>0.09347678721432943</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3880751654644771</v>
+        <v>0.3909579644344742</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>11</v>
@@ -2407,19 +2407,19 @@
         <v>8101</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4268</v>
+        <v>4503</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>12349</v>
+        <v>12790</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.2944663479770226</v>
+        <v>0.2944663479770227</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1551450756717393</v>
+        <v>0.1636821737052542</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4488597626988675</v>
+        <v>0.4649020729424027</v>
       </c>
     </row>
     <row r="29">
@@ -2449,19 +2449,19 @@
         <v>2667</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>654</v>
+        <v>684</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>5487</v>
+        <v>5914</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1253648725626708</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03076909524642611</v>
+        <v>0.03214474372701467</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2579484977787962</v>
+        <v>0.2780376009665996</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4</v>
@@ -2470,19 +2470,19 @@
         <v>2667</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>688</v>
+        <v>667</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6091</v>
+        <v>5947</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.09693064847396225</v>
+        <v>0.09693064847396227</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02500208522094605</v>
+        <v>0.02424119526545733</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2213974341312469</v>
+        <v>0.2161514479299765</v>
       </c>
     </row>
     <row r="30">
@@ -2499,19 +2499,19 @@
         <v>2805</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>821</v>
+        <v>829</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5423</v>
+        <v>5449</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.4495677481833538</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1315776501266189</v>
+        <v>0.1328013096959005</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.869046094823443</v>
+        <v>0.8732775050091056</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>20</v>
@@ -2520,19 +2520,19 @@
         <v>13938</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>9665</v>
+        <v>9879</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>17276</v>
+        <v>16767</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.6552553695474426</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4543799609175037</v>
+        <v>0.4644221771400877</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.8122002747044262</v>
+        <v>0.7882403941047843</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>23</v>
@@ -2541,19 +2541,19 @@
         <v>16743</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>12080</v>
+        <v>12500</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>20919</v>
+        <v>21049</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.6086030035490151</v>
+        <v>0.608603003549015</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4391049126824212</v>
+        <v>0.4543480321783185</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.7603958998152293</v>
+        <v>0.7650956879739466</v>
       </c>
     </row>
     <row r="31">
@@ -2666,19 +2666,19 @@
         <v>2443</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>4887</v>
+        <v>4879</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3205658739230441</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.07984338061746907</v>
+        <v>0.07967191412332847</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6411381369094686</v>
+        <v>0.6401734863081577</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5</v>
@@ -2687,19 +2687,19 @@
         <v>3102</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1221</v>
+        <v>1158</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5607</v>
+        <v>5555</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3466710442041466</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1364692146495161</v>
+        <v>0.1294205474496211</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.6265736723638478</v>
+        <v>0.6207491490673431</v>
       </c>
     </row>
     <row r="33">
@@ -2784,19 +2784,19 @@
         <v>5179</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2735</v>
+        <v>2743</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>7013</v>
+        <v>7015</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.679434126076956</v>
+        <v>0.6794341260769559</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.3588618630905314</v>
+        <v>0.3598265136918423</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.920156619382531</v>
+        <v>0.9203280858766715</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>9</v>
@@ -2805,19 +2805,19 @@
         <v>5847</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>3342</v>
+        <v>3394</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>7728</v>
+        <v>7791</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.6533289557958533</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.3734263276361532</v>
+        <v>0.3792508509326568</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.863530785350484</v>
+        <v>0.8705794525503788</v>
       </c>
     </row>
     <row r="35">
@@ -2909,19 +2909,19 @@
         <v>13711</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>9456</v>
+        <v>9014</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>19706</v>
+        <v>18890</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3598254527762362</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2481653996792983</v>
+        <v>0.236564874111348</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.517164079978138</v>
+        <v>0.4957579479211308</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>48</v>
@@ -2930,19 +2930,19 @@
         <v>24102</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>18665</v>
+        <v>18476</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>30632</v>
+        <v>30333</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2707987834328629</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2097092001973117</v>
+        <v>0.2075850412522814</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3441625189579326</v>
+        <v>0.3408007696185565</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>68</v>
@@ -2951,19 +2951,19 @@
         <v>37813</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>30246</v>
+        <v>29948</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>45898</v>
+        <v>45596</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.2974867363998938</v>
+        <v>0.2974867363998939</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2379555517531751</v>
+        <v>0.2356097560646251</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3610915057779139</v>
+        <v>0.3587216529417819</v>
       </c>
     </row>
     <row r="37">
@@ -2980,19 +2980,19 @@
         <v>2110</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>659</v>
+        <v>669</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>5231</v>
+        <v>5252</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.05537376340589534</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01729937671840832</v>
+        <v>0.01755410201406675</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1372761964041826</v>
+        <v>0.1378445680122045</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>19</v>
@@ -3001,19 +3001,19 @@
         <v>9630</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>6055</v>
+        <v>5745</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>14800</v>
+        <v>14329</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1081998253671151</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.06802546767713892</v>
+        <v>0.06454395650963943</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1662875658178871</v>
+        <v>0.160989634207688</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>23</v>
@@ -3022,19 +3022,19 @@
         <v>11740</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>7719</v>
+        <v>7189</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>17814</v>
+        <v>16998</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.09236390263235722</v>
+        <v>0.09236390263235723</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.06072569621617335</v>
+        <v>0.05655463422704566</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1401488082025733</v>
+        <v>0.1337298128095875</v>
       </c>
     </row>
     <row r="38">
@@ -3051,19 +3051,19 @@
         <v>22283</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>16445</v>
+        <v>16839</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>26995</v>
+        <v>27215</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.5848007838178685</v>
+        <v>0.5848007838178686</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.431573386854169</v>
+        <v>0.4419309500669605</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.7084643805379055</v>
+        <v>0.7142238778586347</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>104</v>
@@ -3072,19 +3072,19 @@
         <v>55272</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>48003</v>
+        <v>48615</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>61531</v>
+        <v>61589</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.621001391200022</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.5393378846593878</v>
+        <v>0.5462108746490849</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.6913260718770544</v>
+        <v>0.6919747140118749</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>140</v>
@@ -3093,19 +3093,19 @@
         <v>77555</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>68893</v>
+        <v>70310</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>85647</v>
+        <v>86749</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.6101493609677489</v>
+        <v>0.610149360967749</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.5420027336758877</v>
+        <v>0.5531554003555508</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.6738101538921515</v>
+        <v>0.6824838258778761</v>
       </c>
     </row>
     <row r="39">
